--- a/sydw/2020上/考点/10-百科常识.xlsx
+++ b/sydw/2020上/考点/10-百科常识.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="280">
   <si>
     <t>诗经、楚辞、论语、大学、周礼、孟子、韩非子、中庸、严华经、</t>
   </si>
@@ -629,25 +630,282 @@
   <si>
     <t>科学革命</t>
   </si>
+  <si>
+    <t>一次能源可否循环</t>
+  </si>
+  <si>
+    <t>可再生</t>
+  </si>
+  <si>
+    <t>太阳能、风能、地热能、生物质能</t>
+  </si>
+  <si>
+    <t>不可再生</t>
+  </si>
+  <si>
+    <t>煤、天然气、石油、核能</t>
+  </si>
+  <si>
+    <t>定义</t>
+  </si>
+  <si>
+    <t>举例</t>
+  </si>
+  <si>
+    <t>能源分类</t>
+  </si>
+  <si>
+    <t>按产生</t>
+  </si>
+  <si>
+    <t>一次能源</t>
+  </si>
+  <si>
+    <t>自然界中自然存在，未经加工转换</t>
+  </si>
+  <si>
+    <t>煤、天然气、石油、太阳能、风能、地热能、核能、生物质能</t>
+  </si>
+  <si>
+    <t>二次能源</t>
+  </si>
+  <si>
+    <t>经过加工或转换</t>
+  </si>
+  <si>
+    <t>汽油、柴油、沼气、电能</t>
+  </si>
+  <si>
+    <t>沼气</t>
+  </si>
+  <si>
+    <t>甲烷+硫化氢</t>
+  </si>
+  <si>
+    <t>天然气</t>
+  </si>
+  <si>
+    <t>甲烷</t>
+  </si>
+  <si>
+    <t>常规能源</t>
+  </si>
+  <si>
+    <t>已大规模成产或广泛利用</t>
+  </si>
+  <si>
+    <t>煤、石油、天然气</t>
+  </si>
+  <si>
+    <t>瓦斯</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>按使用类型</t>
+  </si>
+  <si>
+    <t>新能源</t>
+  </si>
+  <si>
+    <t>刚开始开发利用的，传统能源之外的</t>
+  </si>
+  <si>
+    <t>太阳能、风能、地热能、生物质能、核能</t>
+  </si>
+  <si>
+    <t>可燃冰</t>
+  </si>
+  <si>
+    <t>核裂变</t>
+  </si>
+  <si>
+    <t>1.1964原子弹；2.1991秦山核电站</t>
+  </si>
+  <si>
+    <t>核能</t>
+  </si>
+  <si>
+    <t>核聚变</t>
+  </si>
+  <si>
+    <t>1.1967氢弹；2.太阳内部</t>
+  </si>
+  <si>
+    <t>核衰变</t>
+  </si>
+  <si>
+    <t>光热转换</t>
+  </si>
+  <si>
+    <t>太阳能热水器、太阳灶</t>
+  </si>
+  <si>
+    <t>光电转换</t>
+  </si>
+  <si>
+    <t>太阳能电池</t>
+  </si>
+  <si>
+    <t>太阳能</t>
+  </si>
+  <si>
+    <t>光化学转换</t>
+  </si>
+  <si>
+    <t>光合作有</t>
+  </si>
+  <si>
+    <t>风能</t>
+  </si>
+  <si>
+    <t>风形成的原因：水平方向上气压的差异</t>
+  </si>
+  <si>
+    <t>海洋能</t>
+  </si>
+  <si>
+    <t>潮汐能</t>
+  </si>
+  <si>
+    <t>最成熟</t>
+  </si>
+  <si>
+    <t>波浪能</t>
+  </si>
+  <si>
+    <t>海流能</t>
+  </si>
+  <si>
+    <t>海水温差能</t>
+  </si>
+  <si>
+    <t>最有潜力</t>
+  </si>
+  <si>
+    <t>海水盐度差能</t>
+  </si>
+  <si>
+    <t>生物质能</t>
+  </si>
+  <si>
+    <t>本质是太阳能转化。可转化成常规的固态、液态、气态燃料</t>
+  </si>
+  <si>
+    <t>地热能</t>
+  </si>
+  <si>
+    <t>主要利用与：1.地热发电；2.直接利用(温泉/供暖)。浅层利用规模最大是京津翼地区</t>
+  </si>
+  <si>
+    <t>主要成分：甲烷。主要分布：永久冻土和海洋深处</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>乙醇汽油</t>
+  </si>
+  <si>
+    <t>90%汽油+10乙醇</t>
+  </si>
+  <si>
+    <t>第四代和能源</t>
+  </si>
+  <si>
+    <t>纳米</t>
+  </si>
+  <si>
+    <t>1纳米=1/十亿米；1纳米=1/千微米；1纳米=10-9米</t>
+  </si>
+  <si>
+    <t>纳米材料</t>
+  </si>
+  <si>
+    <t>三维空间中至少一维在1-100nm</t>
+  </si>
+  <si>
+    <t>石墨烯</t>
+  </si>
+  <si>
+    <t>应用</t>
+  </si>
+  <si>
+    <t>纳米动力学</t>
+  </si>
+  <si>
+    <t>纳米电力学</t>
+  </si>
+  <si>
+    <t>并非全部生物遗传基因都是DNA,还有RNA和细胞质</t>
+  </si>
+  <si>
+    <t>纳米生物学和纳米药物学</t>
+  </si>
+  <si>
+    <t>DNA全称脱氧核糖核酸，双螺旋结构，由克里克和沃森发现</t>
+  </si>
+  <si>
+    <t>遗传工程/基因工程</t>
+  </si>
+  <si>
+    <t>基因</t>
+  </si>
+  <si>
+    <t>转基因食品、抗虫棉</t>
+  </si>
+  <si>
+    <t>细胞工程</t>
+  </si>
+  <si>
+    <t>细胞</t>
+  </si>
+  <si>
+    <t>试管婴儿(有性繁殖)、克隆(无性繁殖)</t>
+  </si>
+  <si>
+    <t>我国克隆猴</t>
+  </si>
+  <si>
+    <t>生物工程</t>
+  </si>
+  <si>
+    <t>微生物工程</t>
+  </si>
+  <si>
+    <t>馒头、醋、酱油、酒、红茶</t>
+  </si>
+  <si>
+    <t>酶工程</t>
+  </si>
+  <si>
+    <t>蛋白质</t>
+  </si>
+  <si>
+    <t>催化作用。加酶洗衣粉、能肉粉。酶不局限于蛋白质</t>
+  </si>
+  <si>
+    <t>生物反应器工程</t>
+  </si>
+  <si>
+    <t>超导</t>
+  </si>
+  <si>
+    <t>温度接近绝对零度，电阻小到无法测量</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,16 +942,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -702,6 +959,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,22 +987,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -752,15 +1001,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,7 +1042,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -790,31 +1057,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,25 +1099,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,7 +1147,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +1177,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,37 +1219,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,13 +1243,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,55 +1261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,16 +1288,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,7 +1306,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,30 +1341,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1128,179 +1356,203 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1624,7 +1876,7 @@
   <sheetPr/>
   <dimension ref="B4:O158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -4509,4 +4761,384 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:Q48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="5:6">
+      <c r="E2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="5:9">
+      <c r="E3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="4:16">
+      <c r="D6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" t="s">
+        <v>206</v>
+      </c>
+      <c r="O6" t="s">
+        <v>207</v>
+      </c>
+      <c r="P6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="15:16">
+      <c r="O7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17">
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" t="s">
+        <v>212</v>
+      </c>
+      <c r="I8" t="s">
+        <v>213</v>
+      </c>
+      <c r="O8" t="s">
+        <v>214</v>
+      </c>
+      <c r="P8" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16">
+      <c r="C9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" t="s">
+        <v>219</v>
+      </c>
+      <c r="O9" t="s">
+        <v>220</v>
+      </c>
+      <c r="P9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
+      <c r="E13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
+      <c r="F15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7">
+      <c r="F16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8">
+      <c r="D19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" t="s">
+        <v>241</v>
+      </c>
+      <c r="H22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" t="s">
+        <v>244</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29" t="s">
+        <v>246</v>
+      </c>
+      <c r="F29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7">
+      <c r="F30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
+      <c r="E31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F31" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8">
+      <c r="F32" t="s">
+        <v>252</v>
+      </c>
+      <c r="H32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10">
+      <c r="D38" t="s">
+        <v>255</v>
+      </c>
+      <c r="F38" t="s">
+        <v>256</v>
+      </c>
+      <c r="J38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" t="s">
+        <v>258</v>
+      </c>
+      <c r="D39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9">
+      <c r="D40" t="s">
+        <v>260</v>
+      </c>
+      <c r="I40" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9">
+      <c r="D41" t="s">
+        <v>262</v>
+      </c>
+      <c r="I41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7">
+      <c r="D42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F42" t="s">
+        <v>265</v>
+      </c>
+      <c r="G42" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11">
+      <c r="D43" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43" t="s">
+        <v>268</v>
+      </c>
+      <c r="G43" t="s">
+        <v>269</v>
+      </c>
+      <c r="K43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" t="s">
+        <v>271</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>272</v>
+      </c>
+      <c r="F44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7">
+      <c r="D45" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" t="s">
+        <v>275</v>
+      </c>
+      <c r="G45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>